--- a/Parte A/Data/resultados_validacion_cruzada.xlsx
+++ b/Parte A/Data/resultados_validacion_cruzada.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6851864761240851</v>
+        <v>0.7011554793401927</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7045577900453635</v>
+        <v>0.6931624611341978</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6828807760570372</v>
+        <v>0.7072593778714615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7309179854879198</v>
+        <v>0.6815706391498696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7480236567462425</v>
+        <v>0.7803321918335155</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.711606831648658</v>
+        <v>0.7304915890903152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.719799326626957</v>
+        <v>0.7245803709759692</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7254920394864177</v>
+        <v>0.7372629361108668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7192213540584474</v>
+        <v>0.7143244425120358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7857406455849762</v>
+        <v>0.8117229101249219</v>
       </c>
     </row>
   </sheetData>

--- a/Parte A/Data/resultados_validacion_cruzada.xlsx
+++ b/Parte A/Data/resultados_validacion_cruzada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,45 +468,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7011554793401927</v>
+        <v>0.7235015515270293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6931624611341978</v>
+        <v>0.7100427687167021</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7072593778714615</v>
+        <v>0.7442149708338219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6815706391498696</v>
+        <v>0.681767250150336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7803321918335155</v>
+        <v>0.8079609091512413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7024334476563776</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.700088824184122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7015003039088404</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6996449080143174</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7849016783971028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>K-Nearest Neighbors</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6724195655724319</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6124693546589628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7525881242870517</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.521691151458242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7714962706517449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B5" t="n">
         <v>0.7304915890903152</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5" t="n">
         <v>0.7245803709759692</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5" t="n">
         <v>0.7372629361108668</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5" t="n">
         <v>0.7143244425120358</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.8117229101249219</v>
+      <c r="F5" t="n">
+        <v>0.8117061877168952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6014780336436386</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4251657321265668</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7498512286358436</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3347588045379203</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6420402153876937</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7133308835538135</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6902629593620973</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7524678043077164</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6439510145346389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7953583122128878</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6992283194512494</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7007568642988515</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6952723092689643</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7089567250458748</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7691549247704412</v>
       </c>
     </row>
   </sheetData>

--- a/Parte A/Data/resultados_validacion_cruzada.xlsx
+++ b/Parte A/Data/resultados_validacion_cruzada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,155 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7235015515270293</v>
+        <v>0.6359790952147639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7100427687167021</v>
+        <v>0.507792535872637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7442149708338219</v>
+        <v>0.7864561489298842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.681767250150336</v>
+        <v>0.3779206446625085</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8079609091512413</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7024334476563776</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.700088824184122</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7015003039088404</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6996449080143174</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7849016783971028</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>K-Nearest Neighbors</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6724195655724319</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6124693546589628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7525881242870517</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.521691151458242</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7714962706517449</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7304915890903152</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7245803709759692</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7372629361108668</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7143244425120358</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8117061877168952</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6014780336436386</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4251657321265668</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7498512286358436</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3347588045379203</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6420402153876937</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7133308835538135</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6902629593620973</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7524678043077164</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6439510145346389</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7953583122128878</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6992283194512494</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7007568642988515</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6952723092689643</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7089567250458748</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7691549247704412</v>
+        <v>0.6743104049374413</v>
       </c>
     </row>
   </sheetData>
